--- a/results/mp/logistic/corona/confidence/210/stop-words-desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-desired-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,45 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -103,133 +97,136 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>data</t>
   </si>
   <si>
     <t>helping</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
   <si>
     <t>stay</t>
@@ -590,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8253424657534246</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,7 +706,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8378378378378378</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C4">
         <v>31</v>
@@ -727,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9302325581395349</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8321917808219178</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>0.9230769230769231</v>
@@ -859,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -909,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.9152542372881356</v>
+        <v>0.9057591623036649</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>346</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>347</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6111111111111112</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.582010582010582</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.9007832898172323</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L10">
-        <v>345</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>345</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5077519379844961</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="C11">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="D11">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8936170212765957</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1109,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4705882352941176</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.890625</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4363636363636363</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.8867924528301887</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3866666666666667</v>
+        <v>0.4228187919463087</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.8839285714285714</v>
+        <v>0.8625</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3728813559322034</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.8661971830985915</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1306,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3557046979865772</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.8636363636363636</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,13 +1356,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3392857142857143</v>
+        <v>0.09651474530831099</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>337</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.8620689655172413</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,37 +1406,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1150793650793651</v>
+        <v>0.01747572815533981</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>223</v>
+        <v>3036</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.8611111111111112</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,37 +1456,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.08042895442359249</v>
+        <v>0.01319509896324222</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>343</v>
+        <v>2094</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.8536585365853658</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1509,137 +1506,89 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01230569948186529</v>
+        <v>0.007310870947234584</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E20">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="F20">
-        <v>0.6699999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3050</v>
+        <v>3123</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L20">
+        <v>23</v>
+      </c>
+      <c r="M20">
+        <v>23</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
+        <v>0.82</v>
+      </c>
+      <c r="L21">
+        <v>41</v>
+      </c>
+      <c r="M21">
+        <v>41</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K20">
-        <v>0.84375</v>
-      </c>
-      <c r="L20">
-        <v>135</v>
-      </c>
-      <c r="M20">
-        <v>135</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.009345794392523364</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>0.13</v>
-      </c>
-      <c r="F21">
-        <v>0.87</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2120</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L21">
-        <v>20</v>
-      </c>
-      <c r="M21">
-        <v>20</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.006626696118649416</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>53</v>
-      </c>
-      <c r="E22">
-        <v>0.6</v>
-      </c>
-      <c r="F22">
-        <v>0.4</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>3148</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K22">
-        <v>0.8214285714285714</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1656,16 +1605,16 @@
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.8095238095238095</v>
+        <v>0.8125</v>
       </c>
       <c r="L23">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1677,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="L24">
         <v>50</v>
       </c>
-      <c r="K24">
-        <v>0.8</v>
-      </c>
-      <c r="L24">
-        <v>28</v>
-      </c>
       <c r="M24">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1703,21 +1652,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.7916666666666666</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1729,21 +1678,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1755,21 +1704,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.775</v>
+        <v>0.7405857740585774</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1781,21 +1730,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.7407407407407407</v>
+        <v>0.7244897959183674</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1804,24 +1753,24 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.7382352941176471</v>
+        <v>0.7147058823529412</v>
       </c>
       <c r="L29">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M29">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1833,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.7272727272727273</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1859,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.7254237288135593</v>
+        <v>0.7</v>
       </c>
       <c r="L31">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1885,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.7238493723849372</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L32">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1911,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.7037037037037037</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1937,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.6862745098039216</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1963,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.6785714285714286</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1989,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.6714285714285714</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L36">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2015,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.6595744680851063</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L37">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2041,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.6307692307692307</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L38">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2067,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.5955056179775281</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L39">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2093,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.5714285714285714</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2119,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.515625</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L41">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2145,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.5128205128205128</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2171,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.5111111111111111</v>
+        <v>0.40625</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2197,21 +2146,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.4520547945205479</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2223,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.3220338983050847</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2249,59 +2198,59 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.06493506493506493</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L46">
         <v>20</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>288</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="K47">
-        <v>0.01006289308176101</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N47">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>3148</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2309,25 +2258,51 @@
         <v>25</v>
       </c>
       <c r="K48">
-        <v>0.006190941674812643</v>
+        <v>0.01730648206419132</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M48">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="N48">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="O48">
-        <v>0.6699999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>3050</v>
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49">
+        <v>0.009929078014184398</v>
+      </c>
+      <c r="L49">
+        <v>21</v>
+      </c>
+      <c r="M49">
+        <v>49</v>
+      </c>
+      <c r="N49">
+        <v>0.43</v>
+      </c>
+      <c r="O49">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2094</v>
       </c>
     </row>
   </sheetData>
